--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Nell2-Robo3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Nell2-Robo3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.255260973980181</v>
+        <v>0.37898</v>
       </c>
       <c r="H2">
-        <v>0.255260973980181</v>
+        <v>1.13694</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -543,34 +546,158 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.97204743417705</v>
+        <v>3.367566666666667</v>
       </c>
       <c r="N2">
-        <v>2.97204743417705</v>
+        <v>10.1027</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9944910078726888</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9944910078726888</v>
       </c>
       <c r="Q2">
-        <v>0.7586477227633317</v>
+        <v>1.276240415333334</v>
       </c>
       <c r="R2">
-        <v>0.7586477227633317</v>
+        <v>11.486163738</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.9944910078726888</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.9944910078726888</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.37898</v>
+      </c>
+      <c r="H3">
+        <v>1.13694</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
+        <v>0.01387666666666667</v>
+      </c>
+      <c r="N3">
+        <v>0.04163</v>
+      </c>
+      <c r="O3">
+        <v>0.004097979813093533</v>
+      </c>
+      <c r="P3">
+        <v>0.004097979813093532</v>
+      </c>
+      <c r="Q3">
+        <v>0.005258979133333334</v>
+      </c>
+      <c r="R3">
+        <v>0.0473308122</v>
+      </c>
+      <c r="S3">
+        <v>0.004097979813093533</v>
+      </c>
+      <c r="T3">
+        <v>0.004097979813093532</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.37898</v>
+      </c>
+      <c r="H4">
+        <v>1.13694</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.004778</v>
+      </c>
+      <c r="N4">
+        <v>0.014334</v>
+      </c>
+      <c r="O4">
+        <v>0.001411012314217696</v>
+      </c>
+      <c r="P4">
+        <v>0.001411012314217696</v>
+      </c>
+      <c r="Q4">
+        <v>0.00181076644</v>
+      </c>
+      <c r="R4">
+        <v>0.01629689796</v>
+      </c>
+      <c r="S4">
+        <v>0.001411012314217696</v>
+      </c>
+      <c r="T4">
+        <v>0.001411012314217696</v>
       </c>
     </row>
   </sheetData>
